--- a/delta2/lib_e/osi_ransom/blackbyte.xlsx
+++ b/delta2/lib_e/osi_ransom/blackbyte.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/osi_ransom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6ACC57-3B9C-7640-991A-D810AF86F85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0417A61-4908-3A4B-B0ED-A12A9E79A5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="-21100" windowWidth="34560" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
+    <workbookView xWindow="20" yWindow="-21100" windowWidth="38380" windowHeight="21100" activeTab="1" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="41" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="217">
   <si>
     <t>eid</t>
   </si>
@@ -685,6 +689,33 @@
   </si>
   <si>
     <t>mdeav_alerts</t>
+  </si>
+  <si>
+    <t>pshell-pid</t>
+  </si>
+  <si>
+    <t>netsh-pid</t>
+  </si>
+  <si>
+    <t>anydesk-pid</t>
+  </si>
+  <si>
+    <t>netscan-pid</t>
+  </si>
+  <si>
+    <t>vss-pid</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of map_pid</t>
+  </si>
+  <si>
+    <t>Count of eid_type</t>
   </si>
 </sst>
 </file>
@@ -726,11 +757,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,6 +804,923 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Harvey Wargo" refreshedDate="45770.297346412037" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="97" xr:uid="{AB83A22D-EBAB-4E47-9EF4-46A1278A5930}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="eid" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="map_pid" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <m/>
+        <s v="pshell-pid"/>
+        <s v="netsh-pid"/>
+        <s v="anydesk-pid"/>
+        <s v="netscan-pid"/>
+        <s v="vss-pid"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="eid_type" numFmtId="0">
+      <sharedItems count="5">
+        <s v="cmdline"/>
+        <s v="generic"/>
+        <s v="htool"/>
+        <s v="mdeav_alerts"/>
+        <s v="mde_alerts"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="evidence" numFmtId="0">
+      <sharedItems longText="1"/>
+    </cacheField>
+    <cacheField name="description" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ns_meta" numFmtId="0">
+      <sharedItems count="4">
+        <s v="{ &quot;data&quot;: &quot;2021-11-30&quot;, &quot;url&quot;: &quot;https://redcanary.com/blog/threat-intelligence/blackbyte-ransomware/&quot;, &quot;tags&quot;: [&quot;blackbyte&quot;]}"/>
+        <s v="{ &quot;data&quot;: &quot;2021-02-11&quot;, &quot;url&quot;: &quot;https://www.ic3.gov/CSA/2022/220211.pdf&quot;, &quot;tags&quot;: [&quot;blackbyte&quot;]}"/>
+        <s v="{ &quot;data&quot;: &quot;2023-07-06&quot;, &quot;url&quot;: &quot;https://www.microsoft.com/en-us/security/blog/2023/07/06/the-five-day-job-a-blackbyte-ransomware-intrusion-case-study/&quot;, &quot;tags&quot;: [&quot;blackbyte&quot;]}"/>
+        <s v="{ &quot;data&quot;: &quot;2021-10-15&quot;, &quot;url&quot;: &quot;https://www.trustwave.com/en-us/resources/blogs/spiderlabs-blog/blackbyte-ransomware-pt-1-in-depth-analysis/&quot;, &quot;tags&quot;: [&quot;blackbyte&quot;]}"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="97">
+  <r>
+    <s v="blackbyte-eid0001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="\\127.0.0.1\c$\program files\microsoft\exchange server\v15\frontend\httpproxy\owa\auth\current\themes\ukbse.aspx"/>
+    <s v="From an endpoint perspective, we observed the service MSExchangeMailboxReplication.exe writing an ASPX file to the folder"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0002"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="process == msexchangemailboxreplication.exe &amp;&amp; create_filename_extension == .aspx || modify_filename_extension == .aspx"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0003"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="process == wuauclt.exe &amp;&amp; process_command_line_contains != “”"/>
+    <s v="process spawn with no commandline"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0004"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="HKLM\SYSTEM\CurrentControlSet\Control\FileSystem /v LongPathsEnabled /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0005"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="HKLM\SOFTWARE\Microsoft\Windows\CurrentVersion\Policies\System /v EnableLinkedConnections /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0006"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="HKLM\SOFTWARE\Microsoft\Windows\CurrentVersion\Policies\System /v LocalAccountTokenFilterPolicy /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0007"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Process == regedit.exe &amp;&amp; Reg_key == (“HKLM\SOFTWARE\Microsoft\Windows\CurrentVersion\Policies\System”|| “HKLM\SOFTWARE\Microsoft\Windows\CurrentVersion\Policies\System” || “HKLM\SYSTEM\CurrentControlSet\Control\FileSystem /v LongPathsEnabled”) &amp;&amp; command_line_contains == (REG_DWORD&amp;&amp; 1)"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0008"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="process == vssadmin.exe &amp;&amp; process_command_line_contains == resize shadowstorage&amp;&amp; (unbounded || 401MB)"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0009"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Process_name == schtasks.exe &amp;&amp; command_line_contains == (delete&amp;&amp; Raccine)"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0010"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="C:\Windows\System32\cmd.exe /c for /l %x in (1,1,75) do start wordpad.exe /p C:\Users\tree.dll"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0011"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="cmd /c del C:\Windows\System32\Taskmgr.exe /f /q &amp; del C:\Windows\System32\resmon.exe /f /q &amp; powershell -command “$x =[System.Text.Encoding]::Unicode.GetString([System.Convert]::FromBase64String(‘Vw’+’BpA’+’G4ARAB’+’lAGYA’+’ZQB’+’uAG’+’QA’));Stop-Service -Name $x;Set-Service -StartupType Disabled $x”"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0012"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="cmd /c del C:\Windows\System32\Taskmgr.exe /f /q &amp; del C:\Windows\System32\resmon.exe /f /q &amp; powershell -command “$x =_x000a_[System.Text.Encoding]::Unicode.GetString([System.Convert]::FromBase64String(WinDefend));_x000a_Stop-Service -Name $x;Set-Service -StartupType Disabled $x”"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0013"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="cmd.exe /c vssadmin resize shadowstorage /for=e: /on=e: /maxsize=unbounded"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0014"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="cmd.exe /c vssadmin resize shadowstorage /for=h: /on=h: /maxsize=401MB"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0015"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="C:\Windows\System32\WindowsPowerShell\v1.0\powershell.exe Install-WindowsFeature -Name \”RSAT-AD-PowerShell\” –IncludeAllSubFeature"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0016"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="powershell -command “Import-Module ActiveDirectory;Get-ADComputer -Filter * -Properties * | FT Name”"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0017"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="schtasks.exe /DELETE /TN “\”Raccine Rules Updater\”” /F"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0018"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="\\127.0.0.1\c$\program files\microsoft\exchange server\v15\frontend\httpproxy\owa\auth\current\themes\ukbse.aspx"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0019"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="C:\Windows\System32\WindowsPowerShell\v1.0\powershell.exe -command “$x =[System.Text.Encoding]::Unicode.GetString([System.Convert]::FromBase64String(‘RwBlAHQALQBXAG0AaQBPAGIAagBlAGMAdAAg’+‘AFcAaQBuADMAMgBfAFMAaABhAGQAbwB3AGMAbwBwAHkAIAB8AC’+‘AARgBvAHIARQBhAGMAaAAtAE8AYgBqAGUAYwB0ACAAewAkA’+‘F8ALgBEAGUAbABlAHQAZQAoACkAOwB9AA==’));Invoke-Expression $x”"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0020"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="C:\Windows\System32\WindowsPowerShell\v1.0\powershell.exe -command “$x =_x000a_[System.Text.Encoding]::Unicode.GetString([System.Convert]::FromBase64String(Get-WmiObject Win32_Shadowcopy |_x000a_ForEach-Object {$_.Delete();}));Invoke-Expression $x”"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0021"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="reg add HKLM\SOFTWARE\Microsoft\Windows\CurrentVersion\Policies\System /v EnableLinkedConnections /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0022"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="reg add HKLM\SOFTWARE\Microsoft\Windows\CurrentVersion\Policies\System /v LocalAccountTokenFilterPolicy /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0023"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="reg add HKLM\SYSTEM\CurrentControlSet\Control\FileSystem /v LongPathsEnabled /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0024"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="netsh advfirewall firewall set rule group=”Network Discovery” new enable=Yes"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0025"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="netsh advfirewall firewall set rule group=”File and Printer Sharing” new enable=Yes"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0026"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="cmd.exe /c powershell -command &quot;$x =[System.Text.Encoding]::Unicode.GetString([System.Convert]::FromBase64String('VwBpA'+'G4ARAB'+'lAGYA'+'ZQB'+'uAG'+'QA'));Stop-Service -Name $x;Set-Service -StartupType Disabled $x&quot;"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0027"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="schtasks.exe /DELETE /TN &quot;\&quot;Raccine Rules Updater\&quot;&quot; /F"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0028"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="cmd.exe /c vssadmin resize shadowstorage /for=c: /on=c: /maxsize=401MB"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0029"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="cmd.exe /c vssadmin resize shadowstorage /for=c: /on=c: /maxsize=unbounded"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0030"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="powershell.exe $x =[System.Text.Encoding]::Unicode.GetString([System.Convert]::FromBase64String('RwBlAHQALQBXAG0AaQBPAGIAagBlAGMAdAAg'+'AFcAaQBuADMAMgBfAFMAaABhAGQAbwB3AGMAbwBwAHkAIAB8AC'+'AARgBvAHIARQBhAGMAaAAtAE8AYgBqAGUAYwB0ACAAewAkA'+'F8ALgBEAGUAbABlAHQAZQAoACkAwB9AA=='));Invoke-Expression $x"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0031"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="sc.exe config SQLTELEMETRY start= disabled"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0032"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="sc.exe config SQLTELEMETRY$ECWDB2 start= disabled"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0033"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="sc.exe config SQLWriter start= disabled"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0034"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="sc.exe config SstpSvc start= disabled"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0035"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="powershell.exe Set-MpPreference -EnableControlledFolderAccess Disabled"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0036"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="sc.exe config MBAMService start= disabled"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0037"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="sc.exe config wuauserv start= disabled"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0038"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="sc.exe config Dnscache start= auto"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0039"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="sc.exe config fdPHost start= auto"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0040"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="sc.exe config FDResPub start= auto"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0041"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="sc.exe config SSDPSRV start= auto"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0042"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="sc.exe config upnphost start= auto"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0043"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="sc.exe config RemoteRegistry start= auto"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0044"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="cmd.exe /c netsh advfirewall firewall set rule &quot;group=\&quot;Network Discovery\&quot;&quot; new enable=Yes"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0045"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="cmd.exe /c netsh advfirewall firewall set rule &quot;group=\&quot;File and Printer Sharing\&quot;&quot; new enable=Yes"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0046"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="cmd.exe /c reg add HKLM\SOFTWARE\Microsoft\Windows\CurrentVersion\Policies\System /v LocalAccountTokenFilterPolicy /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0047"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="cmd.exe /c reg add HKLM\SOFTWARE\Microsoft\Windows\CurrentVersion\Policies\System /v EnableLinkedConnections /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0048"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="cmd.exe /c reg add HKLM\SYSTEM\CurrentControlSet\Control\FileSystem /v LongPathsEnabled /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0049"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="mountvol.exe A: \\?\Volume{d7e47829-0000-0000-0000-100000000000}\"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0050"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="mountvol.exe B: \\?\Volume{d7e47829-0000-0000-0000-b0e213000000}\"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0051"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="mountvol.exe E: \\?\Volume{fce79ce0-b01f-11e6-b968-806e6f6e6963}\"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0052"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="powershell.exe Install-WindowsFeature -Name \&quot;RSAT-AD-PowerShell\&quot; –IncludeAllSubFeature"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0053"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="net.exe view"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0054"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="arp.exe -a"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0055"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="powershell.exe Import-Module ActiveDirectory;Get-ADComputer -Filter * -Properties * | FT Name"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0056"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="notepad.exe %appdata%\RestoreMyFiles_BlackByte.txt"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0057"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="cmd.exe /c ping 1.1.1.1 -n 10 &gt; Nul &amp; Del C:\Users\REM\Desktop\hybrid-9-8\complex.exe"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0058"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="powershell.exe $x =[System.Text.Encoding]::Unicode.GetString([System.Convert]::FromBase64String('RwBlAHQALQBXAG0AaQBPAGIAagBlAGMAdAAg'+'AFcAaQBuADMAMgBfAFMAaABhAGQAbwB3AGMAbwBwAHkAIAB8AC'+'AARgBvAHIARQBhAGMAaAAtAE8AYgBqAGUAYwB0ACAAewAkA'+'F8ALgBEAGUAbABlAHQAZQAoACkAOwB9AA=='));Invoke-Expression $x"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0059"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Get-WmiObject Win32_Shadowcopy | ForEach-Object {$_.Delete();}"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0060"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="cmd.exe /c powershell -command &quot;$x =[System.Text.Encoding]::Unicode.GetString([System.Convert]::FromBase64String('VwBpA'+'G4ARAB'+'lAGYA'+'ZQB'+'uAG'+'QA'));Stop-Service -Name $x;Set-Service -StartupType Disabled $x&quot;"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0061"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="ProxyShell vulnerabilities CVE-2021-34473, CVE-2021-34523, and CVE-2021-31207"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0062"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="HKEY_CURRENT_USER\Software\Microsoft\Windows\CurrentVersion\Run _x000a_MsEdgeMsE_x000a_rundll32 C:\Users\user\Downloads\api-msvc.dll,Default"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0063"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="HKEY_CURRENT_USER\Software\Microsoft\Windows\CurrentVersion\Run _x000a_MsEdgeMsE_x000a_rundll32 C:\temp\api-msvc.dll,Default"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0064"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="HKEY_CURRENT_USER\Software\Microsoft\Windows\CurrentVersion\Run_x000a_MsEdgeMsE_x000a_rundll32 C:\systemtest\api-system.png,Default"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0065"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="C:\systemtest\anydesk\AnyDesk.exe_x000a_C:\Program Files (x86)\AnyDesk\AnyDesk.exe_x000a_C:\Scripts\AnyDesk.exe"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0066"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="netscan.exe"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0067"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="netapp.exe"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0068"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="ExByte"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0069"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="cmd /c reg add HKLM\SOFTWARE\Microsoft\Windows\CurrentVersion\Policies\System /v LocalAccountTokenFilterPolicy /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0070"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="cmd /c reg add HKLM\SOFTWARE\Microsoft\Windows\CurrentVersion\Policies\System /v EnableLinkedConnections /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0071"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="cmd /c reg add HKLM\\SYSTEM\\CurrentControlSet\\Control\\FileSystem /v LongPathsEnabled /t REG_DWORD /d 1 /f"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0072"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Trojan:Win32/Kovter!MSR_x000a_Trojan:Win64/WinGoObfusc.LK!MT_x000a_Trojan:Win64/BlackByte!MSR_x000a_HackTool:Win32/AdFind!MSR_x000a_Trojan:Win64/CobaltStrike!MSR"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0073"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="‘CVE-2021-31207’ exploit malware was detected_x000a_An active ‘NetShDisableFireWall’ malware in a command line was prevented from executing._x000a_Suspicious registry modification._x000a_‘Rtcore64’ hacktool was detected_x000a_Possible ongoing hands-on-keyboard activity (Cobalt Strike)_x000a_A file or network connection related to a ransomware-linked emerging threat activity group detected_x000a_Suspicious sequence of exploration activities_x000a_A process was injected with potentially malicious code_x000a_Suspicious behavior by cmd.exe was observed_x000a_‘Blackbyte’ ransomware was detected"/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0074"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="taskill.exe /F /IM Raccine.exe"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0075"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="cscript.exe &lt;malicious JScript launcher&gt;"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0076"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="taskill.exe /F /IM RaccineSettings.exe"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0077"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="schtasks.exe /DELETE /TN \&quot;Raccine Rules Updater\&quot; /F"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0078"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="HKCU\SOFTWARE\Microsoft\Windows\CurrentVersion\Run Name = “Raccine Tray”"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0079"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="HKLM\SYSTEM\CurrentControlSet\Services\EventLog\Application\Raccine"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0080"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="sc.exe config SQLTELEMETRY start = disabled"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0081"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="sc.exe config sc SQLTELEMETRY$ECWDB2 start = disabled"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0082"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="c.exe config SQLWriter start = disabled"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0083"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="sc.exe config SstpSvc start = disabled"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0084"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="sc.exe config MBAMService start = disabled"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0085"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="sc.exe config wuauserv start = disabled"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0086"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="vssadmin.exe resize shadowstorage /for=c: /on=c: /maxsize=401MB"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0087"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="vssadmin.exe resize shadowstorage /for=c: /on=c: /maxsize=unbounded"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0088"/>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="vssadmin.exe Delete Shadows /all /quiet"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0089"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="powershell.exe Get-CimInstance Win32_ShadowCopy | Remove-CimInstance"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0090"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="powershell.exe Set-MpPreference -EnableControlledFolderAccess Disabled"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0091"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="cmd.exe /c rd /s /q %SYSTEMDRIVE%\\$Recycle.bin"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0092"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="cmd.exe /c rd /s /q D:\\$Recycle.bin"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0093"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="netsh advfirewall firewall set rule group=&quot;Network Discovery” new enable=Yes"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0094"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="netsh advfirewall firewall set rule group=&quot;File and Printer Sharing&quot; new enable=Yes"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0095"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="powershell.exe Enable-WindowsOptionalFeature -Online -FeatureName SMB1Protocol"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0096"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="schtasks.exe &lt;remotehost&gt; /TN joke /TR \&quot;wscript.exe C:\\Users\\Public\\obamka.js\&quot; /sc once /st 00:00 /RL HIGHEST"/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="blackbyte-eid0097"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="schtasks.exe /S &lt;remotehost&gt; /Run /TN joke"/>
+    <m/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21AF15F0-3767-5941-9688-522010B44716}" name="PivotTable4" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of map_pid" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of eid_type" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1104,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1306,7 +2259,9 @@
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>204</v>
       </c>
@@ -1322,7 +2277,9 @@
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>204</v>
       </c>
@@ -1434,7 +2391,9 @@
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>204</v>
       </c>
@@ -1450,7 +2409,9 @@
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>204</v>
       </c>
@@ -1514,7 +2475,9 @@
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>204</v>
       </c>
@@ -1530,7 +2493,9 @@
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>204</v>
       </c>
@@ -1546,7 +2511,9 @@
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>204</v>
       </c>
@@ -1834,7 +2801,9 @@
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="C45" s="1" t="s">
         <v>204</v>
       </c>
@@ -1850,7 +2819,9 @@
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="C46" s="1" t="s">
         <v>204</v>
       </c>
@@ -1978,7 +2949,9 @@
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="C54" s="1" t="s">
         <v>204</v>
       </c>
@@ -2058,7 +3031,9 @@
       <c r="A59" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C59" s="1" t="s">
         <v>204</v>
       </c>
@@ -2090,7 +3065,9 @@
       <c r="A61" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C61" s="1" t="s">
         <v>204</v>
       </c>
@@ -2170,7 +3147,9 @@
       <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="C66" s="1" t="s">
         <v>6</v>
       </c>
@@ -2186,7 +3165,9 @@
       <c r="A67" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="C67" s="1" t="s">
         <v>205</v>
       </c>
@@ -2538,7 +3519,9 @@
       <c r="A89" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="C89" s="1" t="s">
         <v>204</v>
       </c>
@@ -2618,7 +3601,9 @@
       <c r="A94" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B94" s="1"/>
+      <c r="B94" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="C94" s="1" t="s">
         <v>204</v>
       </c>
@@ -2634,7 +3619,9 @@
       <c r="A95" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="C95" s="1" t="s">
         <v>204</v>
       </c>
@@ -2701,4 +3688,90 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6B0D86-5AA1-7946-98A8-91EA9FCC42CA}">
+  <dimension ref="A3:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="147.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="4">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>